--- a/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A5DD624-669A-43F5-A6A3-64B917CBB1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4663651-4E20-4628-B42D-1A7ED7BAAB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1560445B-32CF-4101-B34B-E82034B1BE40}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71587CFB-B3AC-43C1-9129-FEE4792A50E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -86,1177 +86,1153 @@
     <t>1,53%</t>
   </si>
   <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>92,69%</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2322980-5E11-4D98-A2CA-D120DDE34F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01F481D-AFA2-4DB6-B4B6-206B804A7431}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2108,7 +2084,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2117,13 +2093,13 @@
         <v>32013</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2132,13 +2108,13 @@
         <v>47947</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2129,13 @@
         <v>945866</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>879</v>
@@ -2168,13 +2144,13 @@
         <v>936380</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1760</v>
@@ -2183,13 +2159,13 @@
         <v>1882246</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,7 +2221,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2257,13 +2233,13 @@
         <v>12549</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2272,13 +2248,13 @@
         <v>37602</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2287,13 +2263,13 @@
         <v>50151</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2284,13 @@
         <v>665960</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -2323,13 +2299,13 @@
         <v>646239</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1286</v>
@@ -2338,13 +2314,13 @@
         <v>1312199</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,7 +2376,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2412,13 +2388,13 @@
         <v>27837</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -2427,13 +2403,13 @@
         <v>59543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -2442,13 +2418,13 @@
         <v>87380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2439,13 @@
         <v>914385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>941</v>
@@ -2478,13 +2454,13 @@
         <v>979069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1904</v>
@@ -2493,13 +2469,13 @@
         <v>1893454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2543,13 @@
         <v>64924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -2582,13 +2558,13 @@
         <v>140672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -2597,13 +2573,13 @@
         <v>205596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,16 +2591,16 @@
         <v>3146</v>
       </c>
       <c r="D20" s="7">
-        <v>3210601</v>
+        <v>3210602</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -2633,28 +2609,28 @@
         <v>3238526</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>6307</v>
       </c>
       <c r="N20" s="7">
-        <v>6449126</v>
+        <v>6449127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2642,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2696,7 +2672,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2710,7 +2686,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24A0008-A80F-4F26-AF20-265865EBD7AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16F6B4-71EA-4D5D-B403-71565F72D9B5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2748,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2855,13 +2831,13 @@
         <v>2551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2870,13 +2846,13 @@
         <v>6239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2885,13 +2861,13 @@
         <v>8790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2882,13 @@
         <v>113214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -2921,13 +2897,13 @@
         <v>105666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -2936,13 +2912,13 @@
         <v>218880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +2986,13 @@
         <v>10164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3025,13 +3001,13 @@
         <v>27616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3040,13 +3016,13 @@
         <v>37780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3037,13 @@
         <v>575650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -3076,13 +3052,13 @@
         <v>552816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>1060</v>
@@ -3091,13 +3067,13 @@
         <v>1128465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3141,13 @@
         <v>10785</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3180,13 +3156,13 @@
         <v>78818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -3195,13 +3171,13 @@
         <v>89603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,28 +3192,28 @@
         <v>1005100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>866</v>
       </c>
       <c r="I11" s="7">
-        <v>948958</v>
+        <v>948957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -3246,13 +3222,13 @@
         <v>1954058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3255,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>1027775</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -3308,7 +3284,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3320,13 +3296,13 @@
         <v>18431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3335,13 +3311,13 @@
         <v>41907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3350,13 +3326,13 @@
         <v>60338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3347,13 @@
         <v>738107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>667</v>
@@ -3386,13 +3362,13 @@
         <v>734376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1342</v>
@@ -3401,13 +3377,13 @@
         <v>1472483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,7 +3439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3475,13 +3451,13 @@
         <v>28090</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -3490,13 +3466,13 @@
         <v>68379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3505,13 +3481,13 @@
         <v>96469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3502,13 @@
         <v>915849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -3541,13 +3517,13 @@
         <v>980384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>1818</v>
@@ -3556,13 +3532,13 @@
         <v>1896233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3606,13 @@
         <v>70022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>205</v>
@@ -3645,13 +3621,13 @@
         <v>222959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
@@ -3660,13 +3636,13 @@
         <v>292981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3657,13 @@
         <v>3347919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>3081</v>
@@ -3696,13 +3672,13 @@
         <v>3322200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>6222</v>
@@ -3711,13 +3687,13 @@
         <v>6670119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B4F4DB-CB59-4740-8961-86A70A6FE33E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA73A1A0-044C-4957-997B-5495F8A5AA2F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,13 +3894,13 @@
         <v>3173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3933,13 +3909,13 @@
         <v>5903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3948,13 +3924,13 @@
         <v>9076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3945,13 @@
         <v>113373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -3984,13 +3960,13 @@
         <v>107457</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -3999,13 +3975,13 @@
         <v>220830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4049,13 @@
         <v>13480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4088,13 +4064,13 @@
         <v>51728</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4103,13 +4079,13 @@
         <v>65208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4100,13 @@
         <v>544774</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>502</v>
@@ -4139,13 +4115,13 @@
         <v>507751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>1027</v>
@@ -4154,13 +4130,13 @@
         <v>1052525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4204,13 @@
         <v>25344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4243,13 +4219,13 @@
         <v>59375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4258,13 +4234,13 @@
         <v>84719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4255,13 @@
         <v>997087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>923</v>
@@ -4294,13 +4270,13 @@
         <v>983538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>1851</v>
@@ -4309,13 +4285,13 @@
         <v>1980625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4347,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4383,13 +4359,13 @@
         <v>18326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4398,13 +4374,13 @@
         <v>55098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4413,13 +4389,13 @@
         <v>73423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4410,13 @@
         <v>741226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>687</v>
@@ -4449,13 +4425,13 @@
         <v>729913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>1366</v>
@@ -4464,13 +4440,13 @@
         <v>1471140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,7 +4502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4538,13 +4514,13 @@
         <v>29701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -4553,13 +4529,13 @@
         <v>94378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -4568,13 +4544,13 @@
         <v>124079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4565,13 @@
         <v>907866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -4604,13 +4580,13 @@
         <v>949401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>1781</v>
@@ -4619,13 +4595,13 @@
         <v>1857267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4669,13 @@
         <v>90024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -4708,13 +4684,13 @@
         <v>266481</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -4723,13 +4699,13 @@
         <v>356505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4720,13 @@
         <v>3304326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>3099</v>
@@ -4759,13 +4735,13 @@
         <v>3278061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>6244</v>
@@ -4774,13 +4750,13 @@
         <v>6582387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4812,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B227E8-9975-4A7F-B1D0-276853A7C378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86854A8-9862-42F0-BE4A-0D2E60E7EACF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4874,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4981,13 +4957,13 @@
         <v>4618</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4996,13 +4972,13 @@
         <v>12595</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -5011,13 +4987,13 @@
         <v>17213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5008,13 @@
         <v>97364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -5047,13 +5023,13 @@
         <v>117781</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -5062,13 +5038,13 @@
         <v>215145</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5112,13 @@
         <v>39683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -5151,13 +5127,13 @@
         <v>75388</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>203</v>
@@ -5166,13 +5142,13 @@
         <v>115071</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5163,13 @@
         <v>509619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>844</v>
@@ -5202,13 +5178,13 @@
         <v>517574</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>1404</v>
@@ -5217,13 +5193,13 @@
         <v>1027193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5267,13 @@
         <v>37867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -5306,13 +5282,13 @@
         <v>100431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -5321,13 +5297,13 @@
         <v>138297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5318,13 @@
         <v>1001381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>1349</v>
@@ -5357,13 +5333,13 @@
         <v>958884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>2262</v>
@@ -5372,13 +5348,13 @@
         <v>1960266</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,7 +5410,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5446,13 +5422,13 @@
         <v>35675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -5461,13 +5437,13 @@
         <v>72931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -5476,13 +5452,13 @@
         <v>108606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5473,13 @@
         <v>692026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>940</v>
@@ -5512,13 +5488,13 @@
         <v>800656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
@@ -5527,13 +5503,13 @@
         <v>1492682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5601,13 +5577,13 @@
         <v>59271</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>203</v>
@@ -5616,13 +5592,13 @@
         <v>135898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>273</v>
@@ -5631,13 +5607,13 @@
         <v>195169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5628,13 @@
         <v>906132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>1356</v>
@@ -5667,13 +5643,13 @@
         <v>1010405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>2292</v>
@@ -5682,13 +5658,13 @@
         <v>1916537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5732,13 @@
         <v>177114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -5771,13 +5747,13 @@
         <v>397244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>875</v>
@@ -5786,13 +5762,13 @@
         <v>574358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,31 +5780,31 @@
         <v>3153</v>
       </c>
       <c r="D20" s="7">
-        <v>3206522</v>
+        <v>3206523</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>4703</v>
       </c>
       <c r="I20" s="7">
-        <v>3405299</v>
+        <v>3405300</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>7856</v>
@@ -5837,13 +5813,13 @@
         <v>6611822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,7 +5831,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -5870,7 +5846,7 @@
         <v>5357</v>
       </c>
       <c r="I21" s="7">
-        <v>3802543</v>
+        <v>3802544</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -5899,7 +5875,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4663651-4E20-4628-B42D-1A7ED7BAAB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAB357A-6133-4925-AC6F-8549C25C046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71587CFB-B3AC-43C1-9129-FEE4792A50E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16678F28-8E05-4E9F-9EB2-7528B52DB7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="410">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -86,13 +86,13 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,1116 +110,1155 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
     <t>95,49%</t>
   </si>
   <si>
@@ -1230,9 +1269,6 @@
   </si>
   <si>
     <t>91,37%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01F481D-AFA2-4DB6-B4B6-206B804A7431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0527-D554-4AB6-8301-67B698DC457C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2084,7 +2120,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2093,13 +2129,13 @@
         <v>32013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -2108,13 +2144,13 @@
         <v>47947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2165,13 @@
         <v>945866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>879</v>
@@ -2144,13 +2180,13 @@
         <v>936380</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1760</v>
@@ -2159,13 +2195,13 @@
         <v>1882246</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,7 +2257,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2233,13 +2269,13 @@
         <v>12549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2248,13 +2284,13 @@
         <v>37602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2263,13 +2299,13 @@
         <v>50151</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2320,13 @@
         <v>665960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -2299,13 +2335,13 @@
         <v>646239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1286</v>
@@ -2314,13 +2350,13 @@
         <v>1312199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2412,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2424,13 @@
         <v>27837</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -2403,13 +2439,13 @@
         <v>59543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -2418,13 +2454,13 @@
         <v>87380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2475,13 @@
         <v>914385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>941</v>
@@ -2454,13 +2490,13 @@
         <v>979069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1904</v>
@@ -2469,13 +2505,13 @@
         <v>1893454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2579,13 @@
         <v>64924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -2558,13 +2594,13 @@
         <v>140672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -2573,13 +2609,13 @@
         <v>205596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,16 +2627,16 @@
         <v>3146</v>
       </c>
       <c r="D20" s="7">
-        <v>3210602</v>
+        <v>3210601</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -2609,13 +2645,13 @@
         <v>3238526</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>6307</v>
@@ -2624,13 +2660,13 @@
         <v>6449127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,7 +2678,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2686,7 +2722,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2707,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16F6B4-71EA-4D5D-B403-71565F72D9B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB49EF08-6551-4DEE-B963-9CE5713DD92C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2724,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,13 +2867,13 @@
         <v>2551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2846,13 +2882,13 @@
         <v>6239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2861,13 +2897,13 @@
         <v>8790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2918,13 @@
         <v>113214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -2897,13 +2933,13 @@
         <v>105666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -2912,13 +2948,13 @@
         <v>218880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +3022,13 @@
         <v>10164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3001,13 +3037,13 @@
         <v>27616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3016,13 +3052,13 @@
         <v>37780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3073,13 @@
         <v>575650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -3052,13 +3088,13 @@
         <v>552816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>1060</v>
@@ -3067,13 +3103,13 @@
         <v>1128465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3177,13 @@
         <v>10785</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3156,13 +3192,13 @@
         <v>78818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -3171,13 +3207,13 @@
         <v>89603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3228,13 @@
         <v>1005100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>866</v>
@@ -3207,13 +3243,13 @@
         <v>948957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -3222,13 +3258,13 @@
         <v>1954058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,7 +3320,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3296,13 +3332,13 @@
         <v>18431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3311,13 +3347,13 @@
         <v>41907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3326,13 +3362,13 @@
         <v>60338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3383,13 @@
         <v>738107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>667</v>
@@ -3362,13 +3398,13 @@
         <v>734376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>1342</v>
@@ -3377,13 +3413,13 @@
         <v>1472483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3451,13 +3487,13 @@
         <v>28090</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -3466,13 +3502,13 @@
         <v>68379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3481,13 +3517,13 @@
         <v>96469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3538,13 @@
         <v>915849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -3517,13 +3553,13 @@
         <v>980384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>1818</v>
@@ -3532,13 +3568,13 @@
         <v>1896233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3642,13 @@
         <v>70022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>205</v>
@@ -3621,13 +3657,13 @@
         <v>222959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
@@ -3636,13 +3672,13 @@
         <v>292981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3693,13 @@
         <v>3347919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>3081</v>
@@ -3672,13 +3708,13 @@
         <v>3322200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>6222</v>
@@ -3687,13 +3723,13 @@
         <v>6670119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,7 +3785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA73A1A0-044C-4957-997B-5495F8A5AA2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8B03EF-E22E-412F-B34E-B7F5AEAF00A4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3787,7 +3823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,13 +3930,13 @@
         <v>3173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3909,13 +3945,13 @@
         <v>5903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3924,13 +3960,13 @@
         <v>9076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3981,13 @@
         <v>113373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -3960,13 +3996,13 @@
         <v>107457</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -3975,13 +4011,13 @@
         <v>220830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4085,13 @@
         <v>13480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4064,13 +4100,13 @@
         <v>51728</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4079,13 +4115,13 @@
         <v>65208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4136,13 @@
         <v>544774</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>502</v>
@@ -4115,13 +4151,13 @@
         <v>507751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>1027</v>
@@ -4130,13 +4166,13 @@
         <v>1052525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4240,13 @@
         <v>25344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4219,13 +4255,13 @@
         <v>59375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4234,13 +4270,13 @@
         <v>84719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4291,13 @@
         <v>997087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>923</v>
@@ -4270,13 +4306,13 @@
         <v>983538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>1851</v>
@@ -4285,13 +4321,13 @@
         <v>1980625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4359,13 +4395,13 @@
         <v>18326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4374,13 +4410,13 @@
         <v>55098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4389,13 +4425,13 @@
         <v>73423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4446,13 @@
         <v>741226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>687</v>
@@ -4425,13 +4461,13 @@
         <v>729913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>1366</v>
@@ -4440,13 +4476,13 @@
         <v>1471140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4514,13 +4550,13 @@
         <v>29701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -4529,13 +4565,13 @@
         <v>94378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -4544,13 +4580,13 @@
         <v>124079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4601,13 @@
         <v>907866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -4580,13 +4616,13 @@
         <v>949401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>1781</v>
@@ -4595,13 +4631,13 @@
         <v>1857267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4705,13 @@
         <v>90024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -4684,13 +4720,13 @@
         <v>266481</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -4699,13 +4735,13 @@
         <v>356505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4756,13 @@
         <v>3304326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>3099</v>
@@ -4735,13 +4771,13 @@
         <v>3278061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>6244</v>
@@ -4750,13 +4786,13 @@
         <v>6582387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,7 +4848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86854A8-9862-42F0-BE4A-0D2E60E7EACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F654D78-92A4-468F-94F4-5C8F477DC990}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,7 +4886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4957,13 +4993,13 @@
         <v>4618</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4972,13 +5008,13 @@
         <v>12595</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4987,13 +5023,13 @@
         <v>17213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5044,13 @@
         <v>97364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -5023,13 +5059,13 @@
         <v>117781</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -5038,13 +5074,13 @@
         <v>215145</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5148,13 @@
         <v>39683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -5127,13 +5163,13 @@
         <v>75388</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>203</v>
@@ -5142,13 +5178,13 @@
         <v>115071</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5199,13 @@
         <v>509619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>844</v>
@@ -5178,13 +5214,13 @@
         <v>517574</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>1404</v>
@@ -5193,13 +5229,13 @@
         <v>1027193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5303,13 @@
         <v>37867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -5282,13 +5318,13 @@
         <v>100431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -5297,13 +5333,13 @@
         <v>138297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5354,13 @@
         <v>1001381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>1349</v>
@@ -5333,13 +5369,13 @@
         <v>958884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>2262</v>
@@ -5348,13 +5384,13 @@
         <v>1960266</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,7 +5446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5422,13 +5458,13 @@
         <v>35675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -5437,13 +5473,13 @@
         <v>72931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -5452,13 +5488,13 @@
         <v>108606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5509,13 @@
         <v>692026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>940</v>
@@ -5488,13 +5524,13 @@
         <v>800656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
@@ -5503,13 +5539,13 @@
         <v>1492682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +5601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5577,13 +5613,13 @@
         <v>59271</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>203</v>
@@ -5592,13 +5628,13 @@
         <v>135898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>273</v>
@@ -5607,13 +5643,13 @@
         <v>195169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5664,13 @@
         <v>906132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>1356</v>
@@ -5643,13 +5679,13 @@
         <v>1010405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>2292</v>
@@ -5658,13 +5694,13 @@
         <v>1916537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5768,13 @@
         <v>177114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -5747,13 +5783,13 @@
         <v>397244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>875</v>
@@ -5762,13 +5798,13 @@
         <v>574358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5819,13 @@
         <v>3206523</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>4703</v>
@@ -5798,13 +5834,13 @@
         <v>3405300</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>7856</v>
@@ -5813,13 +5849,13 @@
         <v>6611822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,7 +5911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAB357A-6133-4925-AC6F-8549C25C046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{782FC480-5B90-4313-A819-17A4D4F33B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16678F28-8E05-4E9F-9EB2-7528B52DB7CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04F64D87-E42F-474F-BD7E-F4207490D03E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="406">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,13 +86,13 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,13 +110,13 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>95,34%</t>
+    <t>95,22%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,10 +125,10 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -137,1138 +137,1126 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>91,37%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0527-D554-4AB6-8301-67B698DC457C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43C3C55-6CA8-4741-B524-ED8C3B9357C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2445,7 +2433,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -2454,13 +2442,13 @@
         <v>87380</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2463,13 @@
         <v>914385</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>941</v>
@@ -2490,13 +2478,13 @@
         <v>979069</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1904</v>
@@ -2505,13 +2493,13 @@
         <v>1893454</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2567,13 @@
         <v>64924</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -2594,13 +2582,13 @@
         <v>140672</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -2609,13 +2597,13 @@
         <v>205596</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2618,13 @@
         <v>3210601</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -2645,10 +2633,10 @@
         <v>3238526</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>114</v>
@@ -2657,7 +2645,7 @@
         <v>6307</v>
       </c>
       <c r="N20" s="7">
-        <v>6449127</v>
+        <v>6449126</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>115</v>
@@ -2708,7 +2696,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2743,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB49EF08-6551-4DEE-B963-9CE5713DD92C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D174589-149D-4C12-8507-B36563B89622}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,13 +2855,13 @@
         <v>2551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2882,13 +2870,13 @@
         <v>6239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2897,13 +2885,13 @@
         <v>8790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2906,13 @@
         <v>113214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -2933,13 +2921,13 @@
         <v>105666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -2948,13 +2936,13 @@
         <v>218880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3010,13 @@
         <v>10164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3037,13 +3025,13 @@
         <v>27616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3052,13 +3040,13 @@
         <v>37780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3061,13 @@
         <v>575650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -3088,13 +3076,13 @@
         <v>552816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1060</v>
@@ -3103,13 +3091,13 @@
         <v>1128465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3165,13 @@
         <v>10785</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3192,13 +3180,13 @@
         <v>78818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -3207,13 +3195,13 @@
         <v>89603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,28 +3216,28 @@
         <v>1005100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>866</v>
       </c>
       <c r="I11" s="7">
-        <v>948957</v>
+        <v>948958</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -3258,13 +3246,13 @@
         <v>1954058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3279,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027775</v>
+        <v>1027776</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -3332,13 +3320,13 @@
         <v>18431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3347,13 +3335,13 @@
         <v>41907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3362,13 +3350,13 @@
         <v>60338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3371,13 @@
         <v>738107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>667</v>
@@ -3398,13 +3386,13 @@
         <v>734376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1342</v>
@@ -3413,13 +3401,13 @@
         <v>1472483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3475,13 @@
         <v>28090</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -3502,13 +3490,13 @@
         <v>68379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3517,13 +3505,13 @@
         <v>96469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3526,13 @@
         <v>915849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -3553,13 +3541,13 @@
         <v>980384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>1818</v>
@@ -3568,13 +3556,13 @@
         <v>1896233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3630,13 @@
         <v>70022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>205</v>
@@ -3657,13 +3645,13 @@
         <v>222959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
@@ -3672,13 +3660,13 @@
         <v>292981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3681,13 @@
         <v>3347919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>3081</v>
@@ -3708,13 +3696,13 @@
         <v>3322200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>6222</v>
@@ -3723,10 +3711,10 @@
         <v>6670119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>217</v>
@@ -3806,7 +3794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8B03EF-E22E-412F-B34E-B7F5AEAF00A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA31E1DB-C56C-4BE4-B4C8-1355BCA2F386}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3930,10 +3918,10 @@
         <v>3173</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>220</v>
@@ -3963,10 +3951,10 @@
         <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3969,13 @@
         <v>113373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -3996,13 +3984,13 @@
         <v>107457</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -4011,13 +3999,13 @@
         <v>220830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4073,13 @@
         <v>13480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4100,13 +4088,13 @@
         <v>51728</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4115,13 +4103,13 @@
         <v>65208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4124,13 @@
         <v>544774</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>502</v>
@@ -4151,13 +4139,13 @@
         <v>507751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1027</v>
@@ -4166,13 +4154,13 @@
         <v>1052525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,10 +4231,10 @@
         <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4255,13 +4243,13 @@
         <v>59375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4270,13 +4258,13 @@
         <v>84719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,10 +4282,10 @@
         <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>923</v>
@@ -4306,13 +4294,13 @@
         <v>983538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>1851</v>
@@ -4321,13 +4309,13 @@
         <v>1980625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4383,13 @@
         <v>18326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4410,13 +4398,13 @@
         <v>55098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4425,13 +4413,13 @@
         <v>73423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,10 +4434,10 @@
         <v>741226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>272</v>
@@ -4476,13 +4464,13 @@
         <v>1471140</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4538,13 @@
         <v>29701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -4565,13 +4553,13 @@
         <v>94378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -4580,13 +4568,13 @@
         <v>124079</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4589,13 @@
         <v>907866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -4616,13 +4604,13 @@
         <v>949401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>1781</v>
@@ -4631,13 +4619,13 @@
         <v>1857267</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4693,13 @@
         <v>90024</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -4720,10 +4708,10 @@
         <v>266481</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>298</v>
@@ -4759,10 +4747,10 @@
         <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>3099</v>
@@ -4771,13 +4759,13 @@
         <v>3278061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>6244</v>
@@ -4786,13 +4774,13 @@
         <v>6582387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F654D78-92A4-468F-94F4-5C8F477DC990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07137928-0036-45EF-8D0A-486BD1C8396D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +4874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4993,13 +4981,13 @@
         <v>4618</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -5008,13 +4996,13 @@
         <v>12595</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -5023,13 +5011,13 @@
         <v>17213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5032,13 @@
         <v>97364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -5059,13 +5047,13 @@
         <v>117781</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -5074,13 +5062,13 @@
         <v>215145</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,10 +5139,10 @@
         <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -5163,13 +5151,13 @@
         <v>75388</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>203</v>
@@ -5178,13 +5166,13 @@
         <v>115071</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5187,13 @@
         <v>509619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>844</v>
@@ -5214,13 +5202,13 @@
         <v>517574</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>1404</v>
@@ -5229,13 +5217,13 @@
         <v>1027193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5291,13 @@
         <v>37867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -5318,13 +5306,13 @@
         <v>100431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -5333,13 +5321,13 @@
         <v>138297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5348,7 @@
         <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>1349</v>
@@ -5369,13 +5357,13 @@
         <v>958884</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>2262</v>
@@ -5384,13 +5372,13 @@
         <v>1960266</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5446,13 @@
         <v>35675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -5473,13 +5461,13 @@
         <v>72931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -5488,13 +5476,13 @@
         <v>108606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5497,13 @@
         <v>692026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>940</v>
@@ -5524,13 +5512,13 @@
         <v>800656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
@@ -5539,13 +5527,13 @@
         <v>1492682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5601,13 @@
         <v>59271</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>203</v>
@@ -5628,13 +5616,13 @@
         <v>135898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>273</v>
@@ -5643,13 +5631,13 @@
         <v>195169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5652,13 @@
         <v>906132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>1356</v>
@@ -5679,13 +5667,13 @@
         <v>1010405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>2292</v>
@@ -5694,13 +5682,13 @@
         <v>1916537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5756,13 @@
         <v>177114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -5783,13 +5771,13 @@
         <v>397244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>875</v>
@@ -5798,13 +5786,13 @@
         <v>574358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,31 +5804,31 @@
         <v>3153</v>
       </c>
       <c r="D20" s="7">
-        <v>3206523</v>
+        <v>3206522</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>4703</v>
       </c>
       <c r="I20" s="7">
-        <v>3405300</v>
+        <v>3405299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>7856</v>
@@ -5849,13 +5837,13 @@
         <v>6611822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5855,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -5882,7 +5870,7 @@
         <v>5357</v>
       </c>
       <c r="I21" s="7">
-        <v>3802544</v>
+        <v>3802543</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782FC480-5B90-4313-A819-17A4D4F33B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32BE0A5F-CD18-4044-BE4B-62B239B1BD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04F64D87-E42F-474F-BD7E-F4207490D03E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0047EF6C-B9A5-4163-870A-34F137ACA9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="342">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1195 +68,1003 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43C3C55-6CA8-4741-B524-ED8C3B9357C2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6A3D64-317B-4554-8E52-FBDFD6193C73}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1786,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8604</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1801,85 +1609,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>1730</v>
+        <v>11514</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>1730</v>
+        <v>20118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>673</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>684390</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>684</v>
       </c>
       <c r="I5" s="7">
-        <v>111025</v>
+        <v>676837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>1357</v>
       </c>
       <c r="N5" s="7">
-        <v>226383</v>
+        <v>1361227</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,153 +1696,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>8604</v>
+        <v>15934</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
       <c r="I7" s="7">
-        <v>9784</v>
+        <v>32013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>18388</v>
+        <v>47947</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>568</v>
+        <v>881</v>
       </c>
       <c r="D8" s="7">
-        <v>569032</v>
+        <v>945866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>558</v>
+        <v>879</v>
       </c>
       <c r="I8" s="7">
-        <v>565812</v>
+        <v>936380</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1126</v>
+        <v>1760</v>
       </c>
       <c r="N8" s="7">
-        <v>1134844</v>
+        <v>1882246</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,153 +1851,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>15934</v>
+        <v>12549</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>32013</v>
+        <v>37602</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
         <v>51</v>
       </c>
-      <c r="M10" s="7">
-        <v>44</v>
-      </c>
       <c r="N10" s="7">
-        <v>47947</v>
+        <v>50151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>881</v>
+        <v>629</v>
       </c>
       <c r="D11" s="7">
-        <v>945866</v>
+        <v>665960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>879</v>
+        <v>657</v>
       </c>
       <c r="I11" s="7">
-        <v>936380</v>
+        <v>646239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1760</v>
+        <v>1286</v>
       </c>
       <c r="N11" s="7">
-        <v>1882246</v>
+        <v>1312199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,153 +2006,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>12549</v>
+        <v>27837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>37602</v>
+        <v>59543</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="N13" s="7">
-        <v>50151</v>
+        <v>87380</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>629</v>
+        <v>963</v>
       </c>
       <c r="D14" s="7">
-        <v>665960</v>
+        <v>914385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>657</v>
+        <v>941</v>
       </c>
       <c r="I14" s="7">
-        <v>646239</v>
+        <v>979069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1286</v>
+        <v>1904</v>
       </c>
       <c r="N14" s="7">
-        <v>1312199</v>
+        <v>1893454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,153 +2161,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>27837</v>
+        <v>64924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="I16" s="7">
-        <v>59543</v>
+        <v>140672</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="N16" s="7">
-        <v>87380</v>
+        <v>205596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>963</v>
+        <v>3146</v>
       </c>
       <c r="D17" s="7">
-        <v>914385</v>
+        <v>3210601</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>941</v>
+        <v>3161</v>
       </c>
       <c r="I17" s="7">
-        <v>979069</v>
+        <v>3238525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1904</v>
+        <v>6307</v>
       </c>
       <c r="N17" s="7">
-        <v>1893454</v>
+        <v>6449126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,217 +2316,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7">
-        <v>64924</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="7">
-        <v>136</v>
-      </c>
-      <c r="I19" s="7">
-        <v>140672</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>203</v>
-      </c>
-      <c r="N19" s="7">
-        <v>205596</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3146</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3210601</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3161</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3238526</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6307</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6449126</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2731,8 +2383,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D174589-149D-4C12-8507-B36563B89622}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB5992-6746-480F-AF9C-BF44C9C13DA6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2748,7 +2400,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2849,100 +2501,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>2551</v>
+        <v>12716</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>6239</v>
+        <v>33855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>8790</v>
+        <v>46571</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>659</v>
+      </c>
+      <c r="D5" s="7">
+        <v>688863</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
+        <v>613</v>
+      </c>
+      <c r="I5" s="7">
+        <v>658482</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1272</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1347344</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D5" s="7">
-        <v>113214</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="7">
-        <v>93</v>
-      </c>
-      <c r="I5" s="7">
-        <v>105666</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5" s="7">
-        <v>212</v>
-      </c>
-      <c r="N5" s="7">
-        <v>218880</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,54 +2603,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>701579</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>692337</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1393915</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3007,97 +2659,97 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>10164</v>
+        <v>10785</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>27616</v>
+        <v>78818</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>37780</v>
+        <v>89603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>540</v>
+        <v>924</v>
       </c>
       <c r="D8" s="7">
-        <v>575650</v>
+        <v>1005100</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>520</v>
+        <v>866</v>
       </c>
       <c r="I8" s="7">
-        <v>552816</v>
+        <v>948957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>1060</v>
+        <v>1790</v>
       </c>
       <c r="N8" s="7">
-        <v>1128465</v>
+        <v>1954058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,153 +2758,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>934</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1015885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>580432</v>
+        <v>1027775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1097</v>
+        <v>1870</v>
       </c>
       <c r="N9" s="7">
-        <v>1166245</v>
+        <v>2043661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>10785</v>
+        <v>18431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>78818</v>
+        <v>41907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>89603</v>
+        <v>60338</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>924</v>
+        <v>675</v>
       </c>
       <c r="D11" s="7">
-        <v>1005100</v>
+        <v>738107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>866</v>
+        <v>667</v>
       </c>
       <c r="I11" s="7">
-        <v>948958</v>
+        <v>734376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
-        <v>1790</v>
+        <v>1342</v>
       </c>
       <c r="N11" s="7">
-        <v>1954058</v>
+        <v>1472483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,153 +2913,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>934</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1015885</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1870</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2043661</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>18431</v>
+        <v>28090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>41907</v>
+        <v>68379</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>60338</v>
+        <v>96469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>675</v>
+        <v>883</v>
       </c>
       <c r="D14" s="7">
-        <v>738107</v>
+        <v>915849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
-        <v>667</v>
+        <v>935</v>
       </c>
       <c r="I14" s="7">
-        <v>734376</v>
+        <v>980384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>1342</v>
+        <v>1818</v>
       </c>
       <c r="N14" s="7">
-        <v>1472483</v>
+        <v>1896234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,153 +3068,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1992703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>28090</v>
+        <v>70022</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="I16" s="7">
-        <v>68379</v>
+        <v>222959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="N16" s="7">
-        <v>96469</v>
+        <v>292981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>883</v>
+        <v>3141</v>
       </c>
       <c r="D17" s="7">
-        <v>915849</v>
+        <v>3347919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
-        <v>935</v>
+        <v>3081</v>
       </c>
       <c r="I17" s="7">
-        <v>980384</v>
+        <v>3322200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>1818</v>
+        <v>6222</v>
       </c>
       <c r="N17" s="7">
-        <v>1896233</v>
+        <v>6670119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,217 +3223,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3201</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3417941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3286</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3545159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1907</v>
+        <v>6487</v>
       </c>
       <c r="N18" s="7">
-        <v>1992702</v>
+        <v>6963100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>60</v>
-      </c>
-      <c r="D19" s="7">
-        <v>70022</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="7">
-        <v>205</v>
-      </c>
-      <c r="I19" s="7">
-        <v>222959</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M19" s="7">
-        <v>265</v>
-      </c>
-      <c r="N19" s="7">
-        <v>292981</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3141</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3347919</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3081</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3322200</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6222</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6670119</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3417941</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3286</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3545159</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6487</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6963100</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3794,8 +3290,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA31E1DB-C56C-4BE4-B4C8-1355BCA2F386}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD761E-BF27-45CF-A542-121F93895B5E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3811,7 +3307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,100 +3408,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>3173</v>
+        <v>16653</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>5903</v>
+        <v>57631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>9076</v>
+        <v>74284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>110</v>
+        <v>635</v>
       </c>
       <c r="D5" s="7">
-        <v>113373</v>
+        <v>658147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>611</v>
       </c>
       <c r="I5" s="7">
-        <v>107457</v>
+        <v>615208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1246</v>
       </c>
       <c r="N5" s="7">
-        <v>220830</v>
+        <v>1273355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,153 +3510,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>13480</v>
+        <v>25344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>51728</v>
+        <v>59375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>65208</v>
+        <v>84719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>525</v>
+        <v>928</v>
       </c>
       <c r="D8" s="7">
-        <v>544774</v>
+        <v>997087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
-        <v>502</v>
+        <v>923</v>
       </c>
       <c r="I8" s="7">
-        <v>507751</v>
+        <v>983538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
-        <v>1027</v>
+        <v>1851</v>
       </c>
       <c r="N8" s="7">
-        <v>1052525</v>
+        <v>1980625</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,153 +3665,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>25344</v>
+        <v>18326</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>59375</v>
+        <v>55098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>84719</v>
+        <v>73423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>928</v>
+        <v>679</v>
       </c>
       <c r="D11" s="7">
-        <v>997087</v>
+        <v>741226</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
-        <v>923</v>
+        <v>687</v>
       </c>
       <c r="I11" s="7">
-        <v>983538</v>
+        <v>729913</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>1851</v>
+        <v>1366</v>
       </c>
       <c r="N11" s="7">
-        <v>1980625</v>
+        <v>1471140</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,153 +3820,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>18326</v>
+        <v>29701</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="7">
+        <v>81</v>
+      </c>
+      <c r="I13" s="7">
+        <v>94378</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="7">
-        <v>49</v>
-      </c>
-      <c r="I13" s="7">
-        <v>55098</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="N13" s="7">
-        <v>73423</v>
+        <v>124079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>679</v>
+        <v>903</v>
       </c>
       <c r="D14" s="7">
-        <v>741226</v>
+        <v>907866</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="7">
+        <v>878</v>
+      </c>
+      <c r="I14" s="7">
+        <v>949401</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H14" s="7">
-        <v>687</v>
-      </c>
-      <c r="I14" s="7">
-        <v>729913</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>1366</v>
+        <v>1781</v>
       </c>
       <c r="N14" s="7">
-        <v>1471140</v>
+        <v>1857267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,153 +3975,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>29701</v>
+        <v>90024</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="I16" s="7">
-        <v>94378</v>
+        <v>266481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="N16" s="7">
-        <v>124079</v>
+        <v>356505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>903</v>
+        <v>3145</v>
       </c>
       <c r="D17" s="7">
-        <v>907866</v>
+        <v>3304326</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
-        <v>878</v>
+        <v>3099</v>
       </c>
       <c r="I17" s="7">
-        <v>949401</v>
+        <v>3278061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>1781</v>
+        <v>6244</v>
       </c>
       <c r="N17" s="7">
-        <v>1857267</v>
+        <v>6582387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,217 +4130,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>86</v>
-      </c>
-      <c r="D19" s="7">
-        <v>90024</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H19" s="7">
-        <v>239</v>
-      </c>
-      <c r="I19" s="7">
-        <v>266481</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M19" s="7">
-        <v>325</v>
-      </c>
-      <c r="N19" s="7">
-        <v>356505</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3145</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3304326</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3099</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3278061</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6244</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6582387</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4857,8 +4197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07137928-0036-45EF-8D0A-486BD1C8396D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A66C98F-637E-4F47-898C-3AF47BC6F779}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4874,7 +4214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4975,100 +4315,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>4618</v>
+        <v>42129</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="I4" s="7">
-        <v>12595</v>
+        <v>82541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="N4" s="7">
-        <v>17213</v>
+        <v>124670</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>671</v>
       </c>
       <c r="D5" s="7">
-        <v>97364</v>
+        <v>592822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
-        <v>214</v>
+        <v>1058</v>
       </c>
       <c r="I5" s="7">
-        <v>117781</v>
+        <v>592881</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
-        <v>325</v>
+        <v>1729</v>
       </c>
       <c r="N5" s="7">
-        <v>215145</v>
+        <v>1185703</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,54 +4417,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634951</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310373</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5133,97 +4473,97 @@
         <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>39683</v>
+        <v>35301</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="H7" s="7">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="I7" s="7">
-        <v>75388</v>
+        <v>91105</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="N7" s="7">
-        <v>115071</v>
+        <v>126405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>560</v>
+        <v>913</v>
       </c>
       <c r="D8" s="7">
-        <v>509619</v>
+        <v>1157563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
-        <v>844</v>
+        <v>1349</v>
       </c>
       <c r="I8" s="7">
-        <v>517574</v>
+        <v>866841</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
-        <v>1404</v>
+        <v>2262</v>
       </c>
       <c r="N8" s="7">
-        <v>1027193</v>
+        <v>2024405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,153 +4572,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549302</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>957946</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142264</v>
+        <v>2150810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>37867</v>
+        <v>33294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="I10" s="7">
-        <v>100431</v>
+        <v>66224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>138297</v>
+        <v>99518</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>913</v>
+        <v>633</v>
       </c>
       <c r="D11" s="7">
-        <v>1001381</v>
+        <v>670390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="H11" s="7">
-        <v>1349</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>958884</v>
+        <v>866416</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
-        <v>2262</v>
+        <v>1573</v>
       </c>
       <c r="N11" s="7">
-        <v>1960266</v>
+        <v>1536805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,153 +4727,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1059315</v>
+        <v>932640</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2098563</v>
+        <v>1636323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>35675</v>
+        <v>57059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="I13" s="7">
-        <v>72931</v>
+        <v>120049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="N13" s="7">
-        <v>108606</v>
+        <v>177108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>633</v>
+        <v>936</v>
       </c>
       <c r="D14" s="7">
-        <v>692026</v>
+        <v>869772</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
-        <v>940</v>
+        <v>1356</v>
       </c>
       <c r="I14" s="7">
-        <v>800656</v>
+        <v>971325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
-        <v>1573</v>
+        <v>2292</v>
       </c>
       <c r="N14" s="7">
-        <v>1492682</v>
+        <v>1841097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,153 +4882,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873587</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601288</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="D16" s="7">
-        <v>59271</v>
+        <v>167783</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
-        <v>203</v>
+        <v>654</v>
       </c>
       <c r="I16" s="7">
-        <v>135898</v>
+        <v>359919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
-        <v>273</v>
+        <v>875</v>
       </c>
       <c r="N16" s="7">
-        <v>195169</v>
+        <v>527702</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>936</v>
+        <v>3153</v>
       </c>
       <c r="D17" s="7">
-        <v>906132</v>
+        <v>3290547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
-        <v>1356</v>
+        <v>4703</v>
       </c>
       <c r="I17" s="7">
-        <v>1010405</v>
+        <v>3297462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
-        <v>2292</v>
+        <v>7856</v>
       </c>
       <c r="N17" s="7">
-        <v>1916537</v>
+        <v>6588010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,217 +5037,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657381</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8731</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7115712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>221</v>
-      </c>
-      <c r="D19" s="7">
-        <v>177114</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H19" s="7">
-        <v>654</v>
-      </c>
-      <c r="I19" s="7">
-        <v>397244</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M19" s="7">
-        <v>875</v>
-      </c>
-      <c r="N19" s="7">
-        <v>574358</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3153</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3206522</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4703</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3405299</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7856</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6611822</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802543</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8731</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186180</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
